--- a/docs/InsuranceSelection2025-public.xlsx
+++ b/docs/InsuranceSelection2025-public.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/302784/Documents/Excels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/302784/Documents/github/yerenutku.github.io/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EC4FE1-F203-6A44-871B-21253C5EB3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB0FC47-79A9-AA4A-A4B7-AF2162D102C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1960" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{9C730F1C-450D-C84E-B499-9F0CE9E23E17}"/>
   </bookViews>
@@ -220,52 +220,6 @@
     <t>nn</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t xml:space="preserve">⚠️How to use: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>You can change the yellow fields, and the rest will be calculated automatically.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t xml:space="preserve">
-🙋How did I do it?:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>I used the highest percentage from every insurance provider for 2025. That means, mostly I had to choose the most expensive option they have. Sometimes, all options were same percentange and then I choose the cheaper one. 
-Still, these prices does not include any additionals (physiotherapy, dental etc). That means, after adding all your needs your table might look different. You can use this excel as starting point.</t>
-    </r>
-  </si>
-  <si>
     <t>onvz</t>
   </si>
   <si>
@@ -434,6 +388,53 @@
         <scheme val="minor"/>
       </rPr>
       <t>(means no coverage; means paying 100% of your bills)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve">⚠️How to use: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve">You can change the yellow fields, and the rest will be calculated automatically. The yellow arrows are there to help you to understand, those two fields are connected. Based on your coverage % the amount you need to pay changes. 100% coverage means, you pay 0€. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve">
+🙋How did I do it?:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> Basically manual labor, I went through all the websites and find their policy about mental health coverage (%). </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve">I used the highest percentage coverage from every insurance provider for 2025. That means, mostly I had to choose the most expensive option they have. Sometimes, all options were same percentange and then I choose the cheaper one.
+Still, these prices does not include any additionals (physiotherapy, dental etc). That means, after adding all your needs, your table might look different. You can use this excel as a starting point. Good luck! </t>
     </r>
   </si>
 </sst>
@@ -714,7 +715,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -740,18 +741,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -761,21 +750,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -785,7 +759,6 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="6" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -802,8 +775,29 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -954,10 +948,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1280,7 +1270,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1295,25 +1285,25 @@
     <col min="12" max="12" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+    <row r="1" spans="1:13" ht="203" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:13" s="8" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
@@ -1324,19 +1314,19 @@
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="31" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>21</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
@@ -1347,15 +1337,15 @@
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="15">
+        <v>16</v>
+      </c>
+      <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="11">
         <v>179.24</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="17">
         <f>4.345*C4*B4</f>
         <v>778.79779999999994</v>
       </c>
@@ -1370,84 +1360,83 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="21"/>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
+      <c r="H7" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20"/>
-      <c r="H7" s="22" t="s">
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+    </row>
+    <row r="8" spans="1:13" s="7" customFormat="1" ht="88" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-    </row>
-    <row r="8" spans="1:13" s="7" customFormat="1" ht="88" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="30">
-        <v>0</v>
-      </c>
-      <c r="C9" s="31">
-        <v>0</v>
-      </c>
-      <c r="D9" s="32">
-        <f>B9*12</f>
-        <v>0</v>
-      </c>
-      <c r="E9" s="32">
-        <f>E$4*((100-C9)/100)</f>
+      <c r="B9" s="20">
+        <v>0</v>
+      </c>
+      <c r="C9" s="21">
+        <v>0</v>
+      </c>
+      <c r="D9" s="22">
+        <f t="shared" ref="D9:D25" si="0">B9*12</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="22">
+        <f t="shared" ref="E9:E25" si="1">E$4*((100-C9)/100)</f>
         <v>9345.5735999999997</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="22">
         <f>D9+E9</f>
         <v>9345.5735999999997</v>
       </c>
-      <c r="G9" s="31">
-        <v>0</v>
-      </c>
-      <c r="H9" s="32">
+      <c r="G9" s="21">
+        <v>0</v>
+      </c>
+      <c r="H9" s="22">
         <f>B9*12</f>
         <v>0</v>
       </c>
-      <c r="I9" s="32">
-        <f>E$4*((100-G9)/100)</f>
+      <c r="I9" s="22">
+        <f t="shared" ref="I9:I25" si="2">E$4*((100-G9)/100)</f>
         <v>9345.5735999999997</v>
       </c>
-      <c r="J9" s="33">
+      <c r="J9" s="22">
         <f>H9+I9</f>
         <v>9345.5735999999997</v>
       </c>
@@ -1463,14 +1452,14 @@
         <v>80</v>
       </c>
       <c r="D10" s="2">
-        <f>B10*12</f>
+        <f t="shared" si="0"/>
         <v>2004</v>
       </c>
       <c r="E10" s="2">
-        <f>E$4*((100-C10)/100)</f>
+        <f t="shared" si="1"/>
         <v>1869.11472</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="2">
         <f>D10+E10</f>
         <v>3873.11472</v>
       </c>
@@ -1478,14 +1467,14 @@
         <v>100</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" ref="H10:H25" si="0">B10*12</f>
+        <f t="shared" ref="H10:H25" si="3">B10*12</f>
         <v>2004</v>
       </c>
       <c r="I10" s="2">
-        <f>E$4*((100-G10)/100)</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
         <f>H10+I10</f>
         <v>2004</v>
       </c>
@@ -1501,30 +1490,30 @@
         <v>85</v>
       </c>
       <c r="D11" s="2">
-        <f>B11*12</f>
+        <f t="shared" si="0"/>
         <v>2064</v>
       </c>
       <c r="E11" s="2">
-        <f>E$4*((100-C11)/100)</f>
+        <f t="shared" si="1"/>
         <v>1401.8360399999999</v>
       </c>
-      <c r="F11" s="26">
-        <f t="shared" ref="F11:F21" si="1">D11+E11</f>
+      <c r="F11" s="2">
+        <f t="shared" ref="F11:F21" si="4">D11+E11</f>
         <v>3465.8360400000001</v>
       </c>
       <c r="G11" s="3">
         <v>100</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2064</v>
       </c>
       <c r="I11" s="2">
-        <f>E$4*((100-G11)/100)</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="26">
-        <f t="shared" ref="J11:J25" si="2">H11+I11</f>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" ref="J11:J25" si="5">H11+I11</f>
         <v>2064</v>
       </c>
     </row>
@@ -1539,30 +1528,30 @@
         <v>90</v>
       </c>
       <c r="D12" s="2">
-        <f>B12*12</f>
+        <f t="shared" si="0"/>
         <v>2124</v>
       </c>
       <c r="E12" s="2">
-        <f>E$4*((100-C12)/100)</f>
+        <f t="shared" si="1"/>
         <v>934.55736000000002</v>
       </c>
-      <c r="F12" s="26">
-        <f t="shared" si="1"/>
+      <c r="F12" s="2">
+        <f t="shared" si="4"/>
         <v>3058.5573599999998</v>
       </c>
       <c r="G12" s="3">
         <v>100</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2124</v>
       </c>
       <c r="I12" s="2">
-        <f>E$4*((100-G12)/100)</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="26">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="5"/>
         <v>2124</v>
       </c>
     </row>
@@ -1577,30 +1566,30 @@
         <v>80</v>
       </c>
       <c r="D13" s="2">
-        <f>B13*12</f>
+        <f t="shared" si="0"/>
         <v>1896</v>
       </c>
       <c r="E13" s="2">
-        <f>E$4*((100-C13)/100)</f>
+        <f t="shared" si="1"/>
         <v>1869.11472</v>
       </c>
-      <c r="F13" s="26">
-        <f t="shared" si="1"/>
+      <c r="F13" s="2">
+        <f t="shared" si="4"/>
         <v>3765.11472</v>
       </c>
       <c r="G13" s="3">
         <v>100</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1896</v>
       </c>
       <c r="I13" s="2">
-        <f>E$4*((100-G13)/100)</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="26">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="5"/>
         <v>1896</v>
       </c>
     </row>
@@ -1615,30 +1604,30 @@
         <v>80</v>
       </c>
       <c r="D14" s="2">
-        <f>B14*12</f>
+        <f t="shared" si="0"/>
         <v>2004</v>
       </c>
       <c r="E14" s="2">
-        <f>E$4*((100-C14)/100)</f>
+        <f t="shared" si="1"/>
         <v>1869.11472</v>
       </c>
-      <c r="F14" s="26">
-        <f t="shared" si="1"/>
+      <c r="F14" s="2">
+        <f t="shared" si="4"/>
         <v>3873.11472</v>
       </c>
       <c r="G14" s="3">
         <v>100</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2004</v>
       </c>
       <c r="I14" s="2">
-        <f>E$4*((100-G14)/100)</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="26">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="5"/>
         <v>2004</v>
       </c>
     </row>
@@ -1653,30 +1642,30 @@
         <v>80</v>
       </c>
       <c r="D15" s="2">
-        <f>B15*12</f>
+        <f t="shared" si="0"/>
         <v>1884</v>
       </c>
       <c r="E15" s="2">
-        <f>E$4*((100-C15)/100)</f>
+        <f t="shared" si="1"/>
         <v>1869.11472</v>
       </c>
-      <c r="F15" s="26">
-        <f t="shared" si="1"/>
+      <c r="F15" s="2">
+        <f t="shared" si="4"/>
         <v>3753.11472</v>
       </c>
       <c r="G15" s="3">
         <v>100</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1884</v>
       </c>
       <c r="I15" s="2">
-        <f>E$4*((100-G15)/100)</f>
-        <v>0</v>
-      </c>
-      <c r="J15" s="26">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="5"/>
         <v>1884</v>
       </c>
     </row>
@@ -1691,30 +1680,30 @@
         <v>75</v>
       </c>
       <c r="D16" s="2">
-        <f>B16*12</f>
+        <f t="shared" si="0"/>
         <v>1872</v>
       </c>
       <c r="E16" s="2">
-        <f>E$4*((100-C16)/100)</f>
+        <f t="shared" si="1"/>
         <v>2336.3933999999999</v>
       </c>
-      <c r="F16" s="26">
-        <f t="shared" si="1"/>
+      <c r="F16" s="2">
+        <f t="shared" si="4"/>
         <v>4208.3933999999999</v>
       </c>
       <c r="G16" s="3">
         <v>100</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1872</v>
       </c>
       <c r="I16" s="2">
-        <f>E$4*((100-G16)/100)</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="26">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="5"/>
         <v>1872</v>
       </c>
     </row>
@@ -1729,30 +1718,30 @@
         <v>80</v>
       </c>
       <c r="D17" s="2">
-        <f>B17*12</f>
+        <f t="shared" si="0"/>
         <v>1872</v>
       </c>
       <c r="E17" s="2">
-        <f>E$4*((100-C17)/100)</f>
+        <f t="shared" si="1"/>
         <v>1869.11472</v>
       </c>
-      <c r="F17" s="26">
-        <f t="shared" si="1"/>
+      <c r="F17" s="2">
+        <f t="shared" si="4"/>
         <v>3741.11472</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1872</v>
       </c>
       <c r="I17" s="2">
-        <f>E$4*((100-G17)/100)</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="26">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="5"/>
         <v>1872</v>
       </c>
     </row>
@@ -1767,30 +1756,30 @@
         <v>75</v>
       </c>
       <c r="D18" s="2">
-        <f>B18*12</f>
+        <f t="shared" si="0"/>
         <v>1800</v>
       </c>
       <c r="E18" s="2">
-        <f>E$4*((100-C18)/100)</f>
+        <f t="shared" si="1"/>
         <v>2336.3933999999999</v>
       </c>
-      <c r="F18" s="26">
-        <f t="shared" si="1"/>
+      <c r="F18" s="2">
+        <f t="shared" si="4"/>
         <v>4136.3933999999999</v>
       </c>
       <c r="G18" s="3">
         <v>100</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1800</v>
       </c>
       <c r="I18" s="2">
-        <f>E$4*((100-G18)/100)</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="26">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="5"/>
         <v>1800</v>
       </c>
     </row>
@@ -1805,30 +1794,30 @@
         <v>85</v>
       </c>
       <c r="D19" s="2">
-        <f>B19*12</f>
+        <f t="shared" si="0"/>
         <v>2088</v>
       </c>
       <c r="E19" s="2">
-        <f>E$4*((100-C19)/100)</f>
+        <f t="shared" si="1"/>
         <v>1401.8360399999999</v>
       </c>
-      <c r="F19" s="26">
-        <f t="shared" si="1"/>
+      <c r="F19" s="2">
+        <f t="shared" si="4"/>
         <v>3489.8360400000001</v>
       </c>
       <c r="G19" s="3">
         <v>100</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2088</v>
       </c>
       <c r="I19" s="2">
-        <f>E$4*((100-G19)/100)</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="26">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="5"/>
         <v>2088</v>
       </c>
     </row>
@@ -1843,36 +1832,36 @@
         <v>75</v>
       </c>
       <c r="D20" s="2">
-        <f>B20*12</f>
+        <f t="shared" si="0"/>
         <v>1932</v>
       </c>
       <c r="E20" s="2">
-        <f>E$4*((100-C20)/100)</f>
+        <f t="shared" si="1"/>
         <v>2336.3933999999999</v>
       </c>
-      <c r="F20" s="26">
-        <f t="shared" si="1"/>
+      <c r="F20" s="2">
+        <f t="shared" si="4"/>
         <v>4268.3933999999999</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1932</v>
       </c>
       <c r="I20" s="2">
-        <f>E$4*((100-G20)/100)</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="26">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="5"/>
         <v>1932</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="4">
         <v>160</v>
@@ -1881,36 +1870,36 @@
         <v>75</v>
       </c>
       <c r="D21" s="2">
-        <f>B21*12</f>
+        <f t="shared" si="0"/>
         <v>1920</v>
       </c>
       <c r="E21" s="2">
-        <f>E$4*((100-C21)/100)</f>
+        <f t="shared" si="1"/>
         <v>2336.3933999999999</v>
       </c>
-      <c r="F21" s="26">
-        <f t="shared" si="1"/>
+      <c r="F21" s="2">
+        <f t="shared" si="4"/>
         <v>4256.3933999999999</v>
       </c>
       <c r="G21" s="3">
         <v>100</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1920</v>
       </c>
       <c r="I21" s="2">
-        <f>E$4*((100-G21)/100)</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="26">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="5"/>
         <v>1920</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B22" s="4">
         <v>166</v>
@@ -1919,36 +1908,36 @@
         <v>70</v>
       </c>
       <c r="D22" s="2">
-        <f>B22*12</f>
+        <f t="shared" si="0"/>
         <v>1992</v>
       </c>
       <c r="E22" s="2">
-        <f>E$4*((100-C22)/100)</f>
+        <f t="shared" si="1"/>
         <v>2803.6720799999998</v>
       </c>
-      <c r="F22" s="26">
-        <f t="shared" ref="F22:F23" si="3">D22+E22</f>
+      <c r="F22" s="2">
+        <f t="shared" ref="F22" si="6">D22+E22</f>
         <v>4795.6720800000003</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1992</v>
       </c>
       <c r="I22" s="2">
-        <f>E$4*((100-G22)/100)</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="26">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="5"/>
         <v>1992</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" s="4">
         <v>158.5</v>
@@ -1957,36 +1946,36 @@
         <v>72</v>
       </c>
       <c r="D23" s="2">
-        <f>B23*12</f>
+        <f t="shared" si="0"/>
         <v>1902</v>
       </c>
       <c r="E23" s="2">
-        <f>E$4*((100-C23)/100)</f>
+        <f t="shared" si="1"/>
         <v>2616.760608</v>
       </c>
-      <c r="F23" s="26">
-        <f t="shared" ref="F23:F25" si="4">D23+E23</f>
+      <c r="F23" s="2">
+        <f t="shared" ref="F23:F25" si="7">D23+E23</f>
         <v>4518.7606080000005</v>
       </c>
       <c r="G23" s="3">
         <v>100</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1902</v>
       </c>
       <c r="I23" s="2">
-        <f>E$4*((100-G23)/100)</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="26">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="5"/>
         <v>1902</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="4">
         <v>164.75</v>
@@ -1995,30 +1984,30 @@
         <v>77</v>
       </c>
       <c r="D24" s="2">
-        <f>B24*12</f>
+        <f t="shared" si="0"/>
         <v>1977</v>
       </c>
       <c r="E24" s="2">
-        <f>E$4*((100-C24)/100)</f>
+        <f t="shared" si="1"/>
         <v>2149.4819280000002</v>
       </c>
-      <c r="F24" s="26">
-        <f t="shared" si="4"/>
+      <c r="F24" s="2">
+        <f t="shared" si="7"/>
         <v>4126.4819280000002</v>
       </c>
       <c r="G24" s="3">
         <v>100</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1977</v>
       </c>
       <c r="I24" s="2">
-        <f>E$4*((100-G24)/100)</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="26">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="5"/>
         <v>1977</v>
       </c>
     </row>
@@ -2028,30 +2017,30 @@
         <v>0</v>
       </c>
       <c r="D25" s="2">
-        <f>B25*12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E25" s="2">
-        <f>E$4*((100-C25)/100)</f>
+        <f t="shared" si="1"/>
         <v>9345.5735999999997</v>
       </c>
-      <c r="F25" s="26">
-        <f t="shared" si="4"/>
+      <c r="F25" s="2">
+        <f t="shared" si="7"/>
         <v>9345.5735999999997</v>
       </c>
       <c r="G25" s="3">
         <v>0</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I25" s="2">
-        <f>E$4*((100-G25)/100)</f>
+        <f t="shared" si="2"/>
         <v>9345.5735999999997</v>
       </c>
-      <c r="J25" s="26">
-        <f t="shared" si="2"/>
+      <c r="J25" s="2">
+        <f t="shared" si="5"/>
         <v>9345.5735999999997</v>
       </c>
     </row>
@@ -2062,18 +2051,6 @@
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="D7:F7"/>
   </mergeCells>
-  <conditionalFormatting sqref="F9:F25">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="80"/>
-        <cfvo type="max"/>
-        <color theme="7"/>
-        <color rgb="FFFF56E9"/>
-        <color rgb="FFFF555A"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D9:D25">
     <cfRule type="dataBar" priority="6">
       <dataBar>
@@ -2102,8 +2079,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J9:J25">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="F9:F25">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="80"/>
@@ -2140,6 +2117,18 @@
           <x14:id>{7B86AF89-5B70-654F-90C0-49DECE64B968}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:J25">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="80"/>
+        <cfvo type="max"/>
+        <color theme="7"/>
+        <color rgb="FFFF56E9"/>
+        <color rgb="FFFF555A"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
